--- a/carbonFootprintCalcFasterDrive.xlsx
+++ b/carbonFootprintCalcFasterDrive.xlsx
@@ -10,17 +10,16 @@
     <sheet name="Framework" sheetId="9" r:id="rId1"/>
     <sheet name="Faster driving" sheetId="7" r:id="rId2"/>
     <sheet name="Constants" sheetId="3" r:id="rId3"/>
-    <sheet name="Roughsheet" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>kg</t>
   </si>
@@ -94,21 +93,6 @@
     <t>Sum of %</t>
   </si>
   <si>
-    <t>Gas Bills</t>
-  </si>
-  <si>
-    <t>Bill date</t>
-  </si>
-  <si>
-    <t>Nat Gas m3</t>
-  </si>
-  <si>
-    <t>Cooking</t>
-  </si>
-  <si>
-    <t>Cooling/heating</t>
-  </si>
-  <si>
     <t>g of CO2 per MJ of energy</t>
   </si>
   <si>
@@ -223,9 +207,6 @@
     <t>Source: https://cta.ornl.gov/data/chapter11.shtml</t>
   </si>
   <si>
-    <t>CO2 absorbtion time by a fully grown tree</t>
-  </si>
-  <si>
     <t>Color code:</t>
   </si>
   <si>
@@ -251,6 +232,21 @@
   </si>
   <si>
     <t>Time needed to absorb by a fully grown tree</t>
+  </si>
+  <si>
+    <t>CO2 absorbtion time by a 15 ft wide sugar maple tree</t>
+  </si>
+  <si>
+    <t>Source: http://www.ecosmartlandscapes.org - need to create an account to calculate sequesteration rates of different types of trees</t>
+  </si>
+  <si>
+    <t>Car mileage (kpl)</t>
+  </si>
+  <si>
+    <t>in hwy</t>
+  </si>
+  <si>
+    <t>in city</t>
   </si>
 </sst>
 </file>
@@ -369,7 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -385,6 +380,7 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -392,7 +388,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -471,7 +470,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F2:H6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -823,75 +822,75 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B6" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="11" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="11" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="10" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -903,184 +902,184 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
-        <v>73</v>
+      <c r="A1" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11" t="s">
-        <v>72</v>
+      <c r="A3" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="12">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="B10" s="10">
+        <v>50</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="11" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
+      <c r="B12" s="10">
+        <v>60</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="13">
-        <v>10</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="11">
-        <v>50</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="11">
-        <v>60</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <f>B9*B10^2/B12^2</f>
         <v>6.9444444444444446</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>40</v>
+      <c r="C15" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="11" t="s">
-        <v>49</v>
+      <c r="A16" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="16">
+      <c r="A17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="15">
         <f>5/B9</f>
         <v>0.5</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>52</v>
+      <c r="C17" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="A18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="10">
         <f>5/B15</f>
         <v>0.72</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>52</v>
+      <c r="C18" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="16">
+      <c r="A19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="15">
         <f>B18-B17</f>
         <v>0.21999999999999997</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>52</v>
+      <c r="C19" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="16"/>
+      <c r="B20" s="15"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="A22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="15">
         <f>B19*Constants!B16</f>
         <v>0.50599999999999989</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="18">
+      <c r="A25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="17">
         <f>E22/Constants!A27</f>
-        <v>8.4844726203601599</v>
-      </c>
-      <c r="G25" s="19" t="s">
+        <v>4.0725468577728767</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1093,15 +1092,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
@@ -1111,10 +1111,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
@@ -1286,10 +1286,10 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="12"/>
+      <c r="A12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="11"/>
       <c r="C12" s="1"/>
       <c r="I12" s="5"/>
     </row>
@@ -1326,217 +1326,119 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    <row r="18" spans="1:6">
+      <c r="A18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:6">
       <c r="A21">
         <f>A20*0.4535</f>
-        <v>21.768000000000001</v>
+        <v>45.35</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="19">
+        <f>A20/12</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="19">
+        <f>A21/12</f>
+        <v>3.7791666666666668</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <f>A20/12</f>
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <f>A21/12</f>
-        <v>1.8140000000000001</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="10">
+    <row r="26" spans="1:6">
+      <c r="A26" s="9">
         <f>A20/365</f>
-        <v>0.13150684931506848</v>
+        <v>0.27397260273972601</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9">
         <f>A21/365</f>
-        <v>5.9638356164383566E-2</v>
+        <v>0.12424657534246576</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="16"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1">
+        <f>32*1.6093/3.785</f>
+        <v>13.60570673712021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="1">
+        <f>24*1.6093/3.785</f>
+        <v>10.204280052840158</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8">
-        <v>42901</v>
-      </c>
-      <c r="B3">
-        <v>88</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <f>B3-C3</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8">
-        <v>42933</v>
-      </c>
-      <c r="B4">
-        <v>68</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <f>B4-C4</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8">
-        <v>42995</v>
-      </c>
-      <c r="B5">
-        <v>60</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <f>B5-C5</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8">
-        <v>43054</v>
-      </c>
-      <c r="B6">
-        <v>78</v>
-      </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <f>B6-C6</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8">
-        <v>43116</v>
-      </c>
-      <c r="B7">
-        <v>300</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <f>B7-C7</f>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8">
-        <f>SUM(B3:B7)</f>
-        <v>594</v>
-      </c>
-      <c r="C8">
-        <f>SUM(C3:C7)</f>
-        <v>200</v>
-      </c>
-      <c r="D8">
-        <f>SUM(D3:D7)</f>
-        <v>394</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>